--- a/TestData/tpp.xlsx
+++ b/TestData/tpp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3BF926-0D78-40DF-BB82-282E1736F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE59A77-CEED-4673-826E-F8307F52ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4872" yWindow="900" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Operation</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>./TestData/firstFlow/addNewHost.xlsx</t>
+  </si>
+  <si>
+    <t>Tear Down</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/tear_down.xlsx</t>
   </si>
 </sst>
 </file>
@@ -402,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
@@ -486,6 +492,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/tpp.xlsx
+++ b/TestData/tpp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE59A77-CEED-4673-826E-F8307F52ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6E34C-C634-45AA-961D-2917C660A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="900" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Operation</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>./TestData/firstFlow/tear_down.xlsx</t>
+  </si>
+  <si>
+    <t>Bulk edit sync options</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/bulkEditOptions.xlsx</t>
+  </si>
+  <si>
+    <t>Set autoprovision</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/setAutoprovisionAndNIC.xlsx</t>
+  </si>
+  <si>
+    <t>Create Dr Policy</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/createDrPolicy.xlsx</t>
+  </si>
+  <si>
+    <t>Add Policy to wave</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/addPolicyToWave.xlsx</t>
   </si>
 </sst>
 </file>
@@ -408,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,15 +518,71 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
